--- a/DeckCompatGuides.xlsx
+++ b/DeckCompatGuides.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvill\Documents\GitHub\DeckCompatGuides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D92FEAB-D407-4C47-9136-CE5D64B850A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C61E48A-E8A8-4B8D-84D8-5F89E56C552C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DBFFC855-B38F-4C72-82F5-A3C32E199FD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{DBFFC855-B38F-4C72-82F5-A3C32E199FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="134">
   <si>
     <t>Game</t>
   </si>
@@ -67,16 +67,411 @@
   </si>
   <si>
     <t>Trihook for near original experience with widescreen options and controller support. Look for my controller profile.</t>
+  </si>
+  <si>
+    <t>Need for Speed™ Underground</t>
+  </si>
+  <si>
+    <t>Need for Speed™ Underground 2</t>
+  </si>
+  <si>
+    <t>Need for Speed™ Hot Pursuit 2</t>
+  </si>
+  <si>
+    <t>Need for Speed™ ProStreet</t>
+  </si>
+  <si>
+    <t>Need for Speed™ Carbon</t>
+  </si>
+  <si>
+    <t>Need for Speed™ Most Wanted Black Edition</t>
+  </si>
+  <si>
+    <t>Need for Speed™ Undercover</t>
+  </si>
+  <si>
+    <t>Need for Speed™ IV High Stakes</t>
+  </si>
+  <si>
+    <t>Need for Speed™ II SE</t>
+  </si>
+  <si>
+    <t>Need for Speed™ III High Stakes</t>
+  </si>
+  <si>
+    <t>Need for Speed™ V Porsche Unleashed</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="dinput8=n,b" %command%</t>
+  </si>
+  <si>
+    <t>ThirteenAG</t>
+  </si>
+  <si>
+    <t>Discord</t>
+  </si>
+  <si>
+    <t>https://discord.gg/awX2qa6K</t>
+  </si>
+  <si>
+    <t>Scarface The World Is Yours</t>
+  </si>
+  <si>
+    <t>Viper Racing</t>
+  </si>
+  <si>
+    <t>dgVoodoo2</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="ddraw=n,b" %command%</t>
+  </si>
+  <si>
+    <t>SODA Offroad Racing</t>
+  </si>
+  <si>
+    <t>Colin McRae Rally 2.0</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="ddraw=n,b; d3d8=n,b; d3d9=n,b; D3DImm=n,b; dinput8=n,b" %command%</t>
+  </si>
+  <si>
+    <t>Carmageddon 3 TDR2000</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="ddraw=n,b; d3d8=n,b; dsoal-aldrv=n,b; dsound=n,b; Mss32=n,b; mcp=n,b; patchw32=n,b; winmm=n,b; v2_winmm=n,b; libogg-0=n,b; libvorbisfile-3=n,b; dplayerx=n,b; drvmgt=n,b; binkw32=n,b; clcd16=n,b; clcd32=n,b" %command%</t>
+  </si>
+  <si>
+    <t>Rage-O-Rama! Mod</t>
+  </si>
+  <si>
+    <t>Screamer 4x4 Glide</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="Glide=n,b; Glide2x=n,b; Glide3x=n,b" %command%</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="ddraw=n,b; d3d8=n,b; d3d9=n,b; D3DImm=n,b; d3drm=n,b" %command%</t>
+  </si>
+  <si>
+    <t>Screamer 4x4 D3D</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="ddraw=n,b; d3d8=n,b; d3d9=n,b; winmm=n,b" %command%</t>
+  </si>
+  <si>
+    <t>Midtown Madness</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="winmm=n,b; Hook1560=n,b; dinput=n,b; libogg=n,b; libvorbis=n,b; libvorbisfile=n,b" %command%</t>
+  </si>
+  <si>
+    <t>Open1560</t>
+  </si>
+  <si>
+    <t>Midtown Madness 2</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="mm2hook=n,b; MM2HookLoader=n,b; dinput=n,b" %command%</t>
+  </si>
+  <si>
+    <t>MM2Hook</t>
+  </si>
+  <si>
+    <t>Trihook</t>
+  </si>
+  <si>
+    <t>4x4 Evolution</t>
+  </si>
+  <si>
+    <t>Sega Rally Revo</t>
+  </si>
+  <si>
+    <t>Proton Experimental</t>
+  </si>
+  <si>
+    <t>Compatdata Dependent?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Tony Hawk's Pro Skater 2</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="DDraw=n,b; dinput=n,b; INIFileParser=n,b" %command%</t>
+  </si>
+  <si>
+    <t>Cumulative Patch</t>
+  </si>
+  <si>
+    <t>Will Rock</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="ddraw=n,b; d3d8=n,b; d3d9=n,b" %command%</t>
+  </si>
+  <si>
+    <t>PROTON_USE_WINED3D=1 PULSE_LATENCY_MSEC=75 WINEDLLOVERRIDES="dinput8=n,b; d3d9=n,b" %command%</t>
+  </si>
+  <si>
+    <t>Dirt Track Racing</t>
+  </si>
+  <si>
+    <t>Poweslide</t>
+  </si>
+  <si>
+    <t>Leadfoot Stadium Offroad Racing</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="ddraw=n,b; d3d8=n,b; d3d9=n,b; glide=n,b; glide2x=n,b; glide3x=n,b" %command%</t>
+  </si>
+  <si>
+    <t>Dirt Track Racing 2</t>
+  </si>
+  <si>
+    <t>Cabela's 4x4 Off-Road Adventure 2</t>
+  </si>
+  <si>
+    <t>Saturday Night Speedway</t>
+  </si>
+  <si>
+    <t>Project IGI</t>
+  </si>
+  <si>
+    <t>Contract Jack</t>
+  </si>
+  <si>
+    <t>Sports Car GT</t>
+  </si>
+  <si>
+    <t>1NSANE</t>
+  </si>
+  <si>
+    <t>TimeSplitters 2 Redux</t>
+  </si>
+  <si>
+    <t>Virtua Cop</t>
+  </si>
+  <si>
+    <t>Virtua Cop 2</t>
+  </si>
+  <si>
+    <t>Speed Busters</t>
+  </si>
+  <si>
+    <t>Hard Truck 2</t>
+  </si>
+  <si>
+    <t>Secret Service In Harm's Way</t>
+  </si>
+  <si>
+    <t>Grand Touring</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="ddraw=n,b; d3d8=n,b" %command%</t>
+  </si>
+  <si>
+    <t>Demolition Racer</t>
+  </si>
+  <si>
+    <t>Test Drive 6</t>
+  </si>
+  <si>
+    <t>[DR-TD6 Require following for music playback]</t>
+  </si>
+  <si>
+    <t>Test Drive 5</t>
+  </si>
+  <si>
+    <t>Test Drive 4</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="ddraw=n,b; d3d8=n,b; glide3x=n,b; winmm=n,b" %command%</t>
+  </si>
+  <si>
+    <t>Wipeout 2097</t>
+  </si>
+  <si>
+    <t>Cabela's 4x4 Off-Road Adventure 3</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="DDraw=n,b; EngineDll=n,b; msvcp60=n,b" %command%</t>
+  </si>
+  <si>
+    <t>Hydro Thunder</t>
+  </si>
+  <si>
+    <t>Project IGI 2</t>
+  </si>
+  <si>
+    <t>Proton 7</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="ddraw=n,b; d3d8=n,b; D3DImm=n,b" %command%</t>
+  </si>
+  <si>
+    <t>Street Racing Syndicate</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="d3d9=n,b" %command%</t>
+  </si>
+  <si>
+    <t>Motocross Madness</t>
+  </si>
+  <si>
+    <t>Motocross Madness 2</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="DDraw=n,b; D3D8=n,b; D3D9=n,b; D3DImm=n,b; winmx=n,b" %command%</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Protontricks: MS Directplay for Music</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="ddraw=n,b; d3d8=n,b; D3DImm=n,b; d3drm=n,b" %command%</t>
+  </si>
+  <si>
+    <t>Wild Metal Counrty</t>
+  </si>
+  <si>
+    <t>Fighting Force</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="D2hlnk32=n,b; Dec130=n,b; D2htls32=n,b; Mfc30=n,b; Winplay=n,b; D3D8=n,b; libogg-0=n,b; Mfc42=n,b; Winsdec=n,b; D3DImm=n,b; Edec=n,b; libvorbis-0=n,b; Msvcrt20=n,b; winmm=n,b; Winstr=n,b; DDraw=n,b; libvorbisfile-3=n,b" %command%</t>
+  </si>
+  <si>
+    <t>2024 release uses directdrawcompat and setup.exe will not run, but a repack will work</t>
+  </si>
+  <si>
+    <t>Off Road Redneck Racing</t>
+  </si>
+  <si>
+    <t>Off Road</t>
+  </si>
+  <si>
+    <t>Destruction Derby 2</t>
+  </si>
+  <si>
+    <t>Win95 Version</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="ddraw=n,b; d3d8=n,b; d3d9=n,b; D3DImm=n,b; winmm=n,b; libogg-0=n,b; libvorbis-0=n,b; libvorbisfile-3=n,b" %command%</t>
+  </si>
+  <si>
+    <t>Outrun Coast 2006 Coast to Coast</t>
+  </si>
+  <si>
+    <t>FXT Mod</t>
+  </si>
+  <si>
+    <t>No One Lives Forever</t>
+  </si>
+  <si>
+    <t>NOLF Revival</t>
+  </si>
+  <si>
+    <t>NOLF Revival
+lithtech launcher commands: +screenwidth 1280 +screenheight 800 +fovx 10 +fovy 7 +pvmodelaspect 1. +fovxinterface 10 +fovyinterface 7</t>
+  </si>
+  <si>
+    <t>-nologin</t>
+  </si>
+  <si>
+    <t>Tribes 2</t>
+  </si>
+  <si>
+    <t>Trives Next</t>
+  </si>
+  <si>
+    <t>Test Drive Brotherhood of Speed</t>
+  </si>
+  <si>
+    <t>Streets of Sim City</t>
+  </si>
+  <si>
+    <t>SSX
+dgVoodoo2 optional for AA\AF</t>
+  </si>
+  <si>
+    <t>Sim Theme Park</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="ddraw=n,b; d3d8=n,b; d3d9=n,b; D3DImm=n,b; dplayerx=n,b; weacityr=n,b; weavoter=n,b; weamailr=n,b; QMixer=n,b; usp11=n,b; weanewsr=n,b; weaauthr=n,b; wearasr=n,b; weachatr=n,b; weauploadr=n,b" %command%</t>
+  </si>
+  <si>
+    <t>needs review, requires specific gpu emulation in dgvoodoo, I believe 4800 or something</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer Generals</t>
+  </si>
+  <si>
+    <t>Command &amp; Conquer Generals Zero Hour</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="d3d8=n,b" %command%</t>
+  </si>
+  <si>
+    <t>[Open game and set graphics settings before adding the below]
+1. INI Edit the Resolution: Go to --&gt; ...\Elite2\base"your Username".cfg
+2. https://www.wsgf.org/dr/star-trek-elite-force-ii (download attachment and replace files)
+seta r_mode "-1"
+seta r_customwidth "1280"
+seta r_customheight "800"</t>
+  </si>
+  <si>
+    <t>Star Trek Elite Force II</t>
+  </si>
+  <si>
+    <t>XIII</t>
+  </si>
+  <si>
+    <t>Protontricks:
+https://www.moddb.com/games/xiii/downloads/xiii-all-in-one-installer</t>
+  </si>
+  <si>
+    <t>GenTool, GenPatcher, neither really working yet, for now just use:
+-xres 1280 -yres 800</t>
+  </si>
+  <si>
+    <t>Rollcage Redux</t>
+  </si>
+  <si>
+    <t>Rollcage II Extreme</t>
+  </si>
+  <si>
+    <t>Ptorontricks: MSVC 2013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,17 +494,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -123,6 +528,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1A3CAAD-358C-48DB-859D-C35BB62825DB}" name="Table1" displayName="Table1" ref="A1:H800" totalsRowShown="0">
+  <autoFilter ref="A1:H800" xr:uid="{B1A3CAAD-358C-48DB-859D-C35BB62825DB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H800">
+    <sortCondition ref="A1:A800"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F3843D9E-621F-448A-AA59-C65C9D7C6CBB}" name="Game"/>
+    <tableColumn id="2" xr3:uid="{CF28ADE7-F2EE-4828-8B90-074CEA485B24}" name="SteamID"/>
+    <tableColumn id="3" xr3:uid="{E32771B2-620F-4A54-AABA-2EC72CBBBCD2}" name="ProtonDB"/>
+    <tableColumn id="4" xr3:uid="{A878C1A6-8612-4AE0-8944-949450BF010F}" name="Compatdata Dependent?"/>
+    <tableColumn id="5" xr3:uid="{FBE491F3-2A60-4F95-8B8C-ADCB6E78F9F9}" name="Discord"/>
+    <tableColumn id="6" xr3:uid="{893C6638-121C-4D3B-9584-963BD11BE1D9}" name="Links"/>
+    <tableColumn id="7" xr3:uid="{71F649A5-0007-4B61-9236-019E17906E29}" name="Notes"/>
+    <tableColumn id="8" xr3:uid="{4AACE43B-3A9E-45DC-953A-D5C27778B0BD}" name="Commands"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,57 +847,870 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D4470-EF9A-4F68-BCB2-AA101FC9ED8F}">
-  <dimension ref="A1:F2"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="104" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.88671875" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="58.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54">
+        <v>2.79</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="H56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>127</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" t="s">
+        <v>52</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>82</v>
+      </c>
+      <c r="H61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G62" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="H63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>54</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" t="s">
+        <v>52</v>
+      </c>
+      <c r="F67">
+        <v>2.79</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="H69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" t="s">
+        <v>97</v>
+      </c>
+      <c r="H70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" t="s">
+        <v>52</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="H72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>128</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H73" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G35" r:id="rId1" location="nfs" xr:uid="{90683F87-18D6-414D-9650-520D523E9E1A}"/>
+    <hyperlink ref="G4:G13" r:id="rId2" location="nfs" display="ThirteenAG" xr:uid="{8943D15F-6465-4530-9679-BBB30C46673C}"/>
+    <hyperlink ref="G48" r:id="rId3" location="scarface" xr:uid="{D2E7B5C1-037B-4886-BAB4-6473A3221797}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{EDA75160-1938-44CE-AD76-83797BA1DF01}"/>
+    <hyperlink ref="G67" r:id="rId5" xr:uid="{369F71E5-233F-49FE-88BD-505640898DFF}"/>
+    <hyperlink ref="G54" r:id="rId6" xr:uid="{EC54DD31-2D30-43FF-966F-527E035F508A}"/>
+    <hyperlink ref="G50" r:id="rId7" xr:uid="{51D0D08A-FE00-42F2-AEAE-E63B97896629}"/>
+    <hyperlink ref="G49" r:id="rId8" xr:uid="{080F59A1-A0C4-4081-A2A2-544AD1B92FB4}"/>
+    <hyperlink ref="G17" r:id="rId9" xr:uid="{BDDCD92E-D7AC-4134-AE7F-7E3757F93AD9}"/>
+    <hyperlink ref="G23" r:id="rId10" xr:uid="{C782FC3B-0AE2-4E4F-A5F8-8F335A74C7A8}"/>
+    <hyperlink ref="G24" r:id="rId11" xr:uid="{34CE3263-7546-4922-98EA-F3EEB8DD82F1}"/>
+    <hyperlink ref="G65" r:id="rId12" xr:uid="{4779D957-021A-444A-A138-42E3A3AFFB5B}"/>
+    <hyperlink ref="G58" r:id="rId13" location="srs" xr:uid="{ACDC4689-F576-44FC-9A27-CCBA9FFEEF15}"/>
+    <hyperlink ref="G41" r:id="rId14" xr:uid="{22F2B775-DC7B-4C86-8A89-1631B7E21444}"/>
+    <hyperlink ref="G66" r:id="rId15" xr:uid="{4D3C672E-DF0F-4992-9F4F-4B297D28D1F2}"/>
+    <hyperlink ref="G59" r:id="rId16" xr:uid="{43891399-27D1-45C9-A2AF-B42CFF2B5F25}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId17"/>
+  <tableParts count="1">
+    <tablePart r:id="rId18"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/DeckCompatGuides.xlsx
+++ b/DeckCompatGuides.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvill\Documents\GitHub\DeckCompatGuides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C61E48A-E8A8-4B8D-84D8-5F89E56C552C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E17B3B0-6DF6-4609-8490-791B1C224BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{DBFFC855-B38F-4C72-82F5-A3C32E199FD3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="153">
   <si>
     <t>Game</t>
   </si>
@@ -448,6 +448,66 @@
   </si>
   <si>
     <t>Ptorontricks: MSVC 2013</t>
+  </si>
+  <si>
+    <t>Evolution GT</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Only thing needed is cracked executables. I used Reloaded. Has native widescreen resolution options.</t>
+  </si>
+  <si>
+    <t>Devastation</t>
+  </si>
+  <si>
+    <t>Install from disc or ripped files.
+Then patch with 390, then 390 perf fix.
+To change resolution devastation.ini gets written to: /home/deck/.steam/steam/steamapps/compatdata/[unique compat suid]/pfx/drive_c/users/steamuser/Documents/Devastation/</t>
+  </si>
+  <si>
+    <t>Grand Prix Legends</t>
+  </si>
+  <si>
+    <t>https://gplps.wordpress.com/gplps-gpl-installer/</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto</t>
+  </si>
+  <si>
+    <t>https://gtaforums.com/topic/986492-grand-theft-auto-ready2play-full-game-windows-version/
+https://pixeldrain.com/u/UBsMaEnm</t>
+  </si>
+  <si>
+    <t>R2P Version (extract to install directory alongside original)</t>
+  </si>
+  <si>
+    <t>"/home/deck/.local/share/Steam/steamapps/common/Proton 8.0/proton" run "/run/media/deck/MicroSDXC/steamapps/common/Grand Theft Auto/GTA - Launcher.exe" ; killall -9 "GTA - Launcher.exe" # %command%</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto Vice City</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="d3d8=n,b; ddraw=n,b; dinput8=n,b; Mss32=n,b; rwd3d9=n,b" %command%</t>
+  </si>
+  <si>
+    <t>https://www.definitive-edition-project.com/</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto 3</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="d3d8=n,b; ddraw=n,b; dinput8=n,b; drvmgt=n,b; Mss32=n,b; rwd3d9=n,b" %command%</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto San Andreas</t>
+  </si>
+  <si>
+    <t>WINEDLLOVERRIDES="bass=n,b; eax=n,b; ogg=n,b; vorbis=n,b; vorbisFile=n,b; vorbisHooked=n,b" %command%</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto 2</t>
   </si>
 </sst>
 </file>
@@ -848,25 +908,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D4470-EF9A-4F68-BCB2-AA101FC9ED8F}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="58.88671875" customWidth="1"/>
+    <col min="8" max="8" width="58.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -900,7 +960,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -917,7 +977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -928,7 +988,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -936,7 +996,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -944,7 +1004,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -953,7 +1013,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -964,7 +1024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -973,7 +1033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -984,7 +1044,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -995,7 +1055,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -1006,7 +1066,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -1017,7 +1077,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -1031,7 +1091,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -1040,7 +1100,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -1048,7 +1108,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1059,7 +1119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -1070,7 +1130,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -1078,7 +1138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -1086,7 +1146,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -1094,7 +1154,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1103,7 +1163,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1117,7 +1177,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1128,7 +1188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -1142,7 +1202,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -1153,7 +1213,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1167,7 +1227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1181,7 +1241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1195,7 +1255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1209,7 +1269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1223,7 +1283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1237,7 +1297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1251,7 +1311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1265,7 +1325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1279,7 +1339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1293,7 +1353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1307,7 +1367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -1318,7 +1378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -1332,7 +1392,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -1346,7 +1406,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -1360,7 +1420,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -1369,7 +1429,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -1377,7 +1437,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -1388,12 +1448,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -1401,7 +1461,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -1409,7 +1469,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -1423,7 +1483,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -1434,7 +1494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -1445,7 +1505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -1453,7 +1513,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -1464,7 +1524,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>120</v>
       </c>
@@ -1475,7 +1535,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -1492,7 +1552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -1500,7 +1560,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -1508,7 +1568,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -1519,7 +1579,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>92</v>
       </c>
@@ -1530,7 +1590,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -1544,7 +1604,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -1552,7 +1612,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -1560,7 +1620,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -1571,7 +1631,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -1579,7 +1639,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -1587,7 +1647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>54</v>
       </c>
@@ -1598,7 +1658,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>115</v>
       </c>
@@ -1612,7 +1672,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -1629,7 +1689,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -1637,7 +1697,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -1645,7 +1705,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -1656,7 +1716,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -1668,7 +1728,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -1676,7 +1736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>128</v>
       </c>
@@ -1685,6 +1745,91 @@
       </c>
       <c r="H73" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74" t="s">
+        <v>135</v>
+      </c>
+      <c r="G74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75" t="s">
+        <v>135</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>139</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>141</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G77" t="s">
+        <v>143</v>
+      </c>
+      <c r="H77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>145</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H78" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H79" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H80" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1706,11 +1851,15 @@
     <hyperlink ref="G41" r:id="rId14" xr:uid="{22F2B775-DC7B-4C86-8A89-1631B7E21444}"/>
     <hyperlink ref="G66" r:id="rId15" xr:uid="{4D3C672E-DF0F-4992-9F4F-4B297D28D1F2}"/>
     <hyperlink ref="G59" r:id="rId16" xr:uid="{43891399-27D1-45C9-A2AF-B42CFF2B5F25}"/>
+    <hyperlink ref="F76" r:id="rId17" tooltip="https://gplps.wordpress.com/gplps-gpl-installer/" xr:uid="{80453073-7950-4AC0-9D9A-D995D337D140}"/>
+    <hyperlink ref="F78" r:id="rId18" xr:uid="{05036F8C-21B5-42D0-BBB3-067783A3DE89}"/>
+    <hyperlink ref="F79" r:id="rId19" xr:uid="{18680F74-C2ED-4083-9676-914A14E34F33}"/>
+    <hyperlink ref="F80" r:id="rId20" xr:uid="{FC083C65-52E9-47B9-9DA9-34912D88B614}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId17"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>